--- a/output/checklists/club002_ひかりSC/02-1_check_paper2_1_memberships_club002_ひかりSC_R6.xlsx
+++ b/output/checklists/club002_ひかりSC/02-1_check_paper2_1_memberships_club002_ひかりSC_R6.xlsx
@@ -720,7 +720,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-04-21</t>
+          <t>2025-04-23</t>
         </is>
       </c>
     </row>
